--- a/runs/run341/NotionalETEOutput341.xlsx
+++ b/runs/run341/NotionalETEOutput341.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER1_State_Update</t>
+    <t>Missile_HIGHWIND1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER1_393.MISSILE_BRAVER1_393</t>
+    <t>MISSILE_HIGHWIND1_258.MISSILE_HIGHWIND1_258</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER1</t>
+    <t>MISSILE_HIGHWIND1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1546.562271792501</v>
+        <v>-1494.553266816849</v>
       </c>
       <c r="J2">
-        <v>1918.98508627984</v>
+        <v>2026.616594468801</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1450.671775997043</v>
+        <v>-1537.409917636246</v>
       </c>
       <c r="J3">
-        <v>1900.569476491174</v>
+        <v>1986.919818771536</v>
       </c>
       <c r="K3">
-        <v>308.7751616750122</v>
+        <v>306.7903845617946</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1373.216407858789</v>
+        <v>-1405.56461534114</v>
       </c>
       <c r="J4">
-        <v>1907.439203110261</v>
+        <v>1953.476256332741</v>
       </c>
       <c r="K4">
-        <v>614.2909858243387</v>
+        <v>604.9930688636551</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1432.834290730318</v>
+        <v>-1383.494823872552</v>
       </c>
       <c r="J5">
-        <v>1946.433456615842</v>
+        <v>1839.058545048887</v>
       </c>
       <c r="K5">
-        <v>828.87460228342</v>
+        <v>905.4153725543472</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1358.792444016613</v>
+        <v>-1325.458561768576</v>
       </c>
       <c r="J6">
-        <v>1745.141235930794</v>
+        <v>1791.334960904077</v>
       </c>
       <c r="K6">
-        <v>1081.206019263409</v>
+        <v>1100.600515148751</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1394.923435872494</v>
+        <v>-1309.489443580976</v>
       </c>
       <c r="J7">
-        <v>1812.216422634905</v>
+        <v>1706.048840040458</v>
       </c>
       <c r="K7">
-        <v>1405.499782801603</v>
+        <v>1331.170346303696</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1374.668424189861</v>
+        <v>-1282.171205040097</v>
       </c>
       <c r="J8">
-        <v>1698.929836011155</v>
+        <v>1777.99399619107</v>
       </c>
       <c r="K8">
-        <v>1589.050147549983</v>
+        <v>1622.754378224718</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-103.7528124473442</v>
+        <v>-99.91954577051797</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1337.354971517134</v>
+        <v>-1250.129901737115</v>
       </c>
       <c r="J9">
-        <v>1687.893304432826</v>
+        <v>1578.607357044604</v>
       </c>
       <c r="K9">
-        <v>1858.918900459322</v>
+        <v>1861.631287716262</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>217.2828686460508</v>
+        <v>207.1240202246945</v>
       </c>
       <c r="G10">
-        <v>-82.92122370281932</v>
+        <v>-84.56223058209234</v>
       </c>
       <c r="H10">
-        <v>851.6729732157105</v>
+        <v>823.3256003292033</v>
       </c>
       <c r="I10">
-        <v>-1302.139878111913</v>
+        <v>-1209.901899169752</v>
       </c>
       <c r="J10">
-        <v>1687.788915449784</v>
+        <v>1608.593484717142</v>
       </c>
       <c r="K10">
-        <v>1970.507463815431</v>
+        <v>1947.314330298736</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>168.2180115464008</v>
+        <v>170.8806397109101</v>
       </c>
       <c r="G11">
-        <v>-68.4409259832838</v>
+        <v>-68.35660804728296</v>
       </c>
       <c r="H11">
-        <v>1098.519051877013</v>
+        <v>1063.980441046478</v>
       </c>
       <c r="I11">
-        <v>-1171.59370460828</v>
+        <v>-1187.262533481581</v>
       </c>
       <c r="J11">
-        <v>1523.596225028093</v>
+        <v>1611.707703230731</v>
       </c>
       <c r="K11">
-        <v>2106.17057597058</v>
+        <v>2212.679472826067</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>136.1766734846673</v>
+        <v>144.0331774016203</v>
       </c>
       <c r="G12">
-        <v>-50.69511988623601</v>
+        <v>-50.56419422848948</v>
       </c>
       <c r="H12">
-        <v>1218.955421305314</v>
+        <v>1171.161980476172</v>
       </c>
       <c r="I12">
-        <v>-1201.436287932889</v>
+        <v>-1168.102151702784</v>
       </c>
       <c r="J12">
-        <v>1546.254710549468</v>
+        <v>1522.113091033987</v>
       </c>
       <c r="K12">
-        <v>2388.085187085929</v>
+        <v>2241.568484080906</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>117.454715692211</v>
+        <v>116.8120815898661</v>
       </c>
       <c r="G13">
-        <v>-32.99126839728507</v>
+        <v>-33.35497881601827</v>
       </c>
       <c r="H13">
-        <v>1272.459763205551</v>
+        <v>1229.56311544039</v>
       </c>
       <c r="I13">
-        <v>-1145.199245059028</v>
+        <v>-1140.858776603518</v>
       </c>
       <c r="J13">
-        <v>1431.98111887313</v>
+        <v>1481.257049916198</v>
       </c>
       <c r="K13">
-        <v>2515.406144109686</v>
+        <v>2389.576101021777</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>114.3491568929114</v>
+        <v>108.4878751293969</v>
       </c>
       <c r="G14">
-        <v>-17.32608962817777</v>
+        <v>-16.75815087938517</v>
       </c>
       <c r="H14">
-        <v>1362.184449086524</v>
+        <v>1278.059220341496</v>
       </c>
       <c r="I14">
-        <v>-1057.011992387785</v>
+        <v>-1053.647341246023</v>
       </c>
       <c r="J14">
-        <v>1350.127850080018</v>
+        <v>1392.761378029427</v>
       </c>
       <c r="K14">
-        <v>2612.176696524454</v>
+        <v>2579.644839496735</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.8828560835974</v>
+        <v>99.48119483104557</v>
       </c>
       <c r="G15">
-        <v>-0.9249083677933682</v>
+        <v>-0.9147696219848991</v>
       </c>
       <c r="H15">
-        <v>1334.611212919705</v>
+        <v>1377.442504811021</v>
       </c>
       <c r="I15">
-        <v>-1024.586446050561</v>
+        <v>-1051.12367289551</v>
       </c>
       <c r="J15">
-        <v>1383.672156829364</v>
+        <v>1397.103879287986</v>
       </c>
       <c r="K15">
-        <v>2675.831505843884</v>
+        <v>2889.732264994209</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>95.9643584412097</v>
+        <v>90.25271237115815</v>
       </c>
       <c r="G16">
-        <v>15.48000675777546</v>
+        <v>15.58871147047054</v>
       </c>
       <c r="H16">
-        <v>1363.900750027611</v>
+        <v>1371.12678439505</v>
       </c>
       <c r="I16">
-        <v>-984.8232571080497</v>
+        <v>-1008.435801467254</v>
       </c>
       <c r="J16">
-        <v>1259.230579154698</v>
+        <v>1365.234698246585</v>
       </c>
       <c r="K16">
-        <v>2793.336381358571</v>
+        <v>2812.002985746843</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>87.47555045443664</v>
+        <v>88.86157954296498</v>
       </c>
       <c r="G17">
-        <v>31.27566790407877</v>
+        <v>33.58937553157104</v>
       </c>
       <c r="H17">
-        <v>1536.70240645582</v>
+        <v>1476.777309017926</v>
       </c>
       <c r="I17">
-        <v>-992.6215662861587</v>
+        <v>-962.7898317441693</v>
       </c>
       <c r="J17">
-        <v>1287.390493767582</v>
+        <v>1244.500660085866</v>
       </c>
       <c r="K17">
-        <v>2954.784681811781</v>
+        <v>2970.667995207982</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>82.80169622348183</v>
+        <v>81.58130384012729</v>
       </c>
       <c r="G18">
-        <v>49.92267995540853</v>
+        <v>47.69133019406605</v>
       </c>
       <c r="H18">
-        <v>1433.590932348442</v>
+        <v>1432.401595774262</v>
       </c>
       <c r="I18">
-        <v>-890.2991366731761</v>
+        <v>-967.8021350290595</v>
       </c>
       <c r="J18">
-        <v>1200.661872070093</v>
+        <v>1266.932844466239</v>
       </c>
       <c r="K18">
-        <v>3118.413153823446</v>
+        <v>2998.36159620638</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.47442374381355</v>
+        <v>81.5223845982467</v>
       </c>
       <c r="G19">
-        <v>64.74759884262861</v>
+        <v>67.4841282059287</v>
       </c>
       <c r="H19">
-        <v>1562.499839938908</v>
+        <v>1591.543134155678</v>
       </c>
       <c r="I19">
-        <v>-894.6211229461005</v>
+        <v>-855.919335319329</v>
       </c>
       <c r="J19">
-        <v>1156.817605712416</v>
+        <v>1151.640106142701</v>
       </c>
       <c r="K19">
-        <v>3198.05473756427</v>
+        <v>3091.134947556102</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.41198685920047</v>
+        <v>74.94276283611813</v>
       </c>
       <c r="G20">
-        <v>83.90808181945673</v>
+        <v>81.41084260138003</v>
       </c>
       <c r="H20">
-        <v>1505.884027670475</v>
+        <v>1484.203544411105</v>
       </c>
       <c r="I20">
-        <v>-826.4903162103399</v>
+        <v>-875.2107363573227</v>
       </c>
       <c r="J20">
-        <v>1107.965121627979</v>
+        <v>1173.411052895216</v>
       </c>
       <c r="K20">
-        <v>3006.118876341044</v>
+        <v>3139.72004756329</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.41825618026905</v>
+        <v>68.74953875667302</v>
       </c>
       <c r="G21">
-        <v>98.47802480861898</v>
+        <v>96.58343807071553</v>
       </c>
       <c r="H21">
-        <v>1567.392503964212</v>
+        <v>1569.855547407114</v>
       </c>
       <c r="I21">
-        <v>-799.7119524922222</v>
+        <v>-815.4242002301445</v>
       </c>
       <c r="J21">
-        <v>1031.491122316221</v>
+        <v>1074.002777746694</v>
       </c>
       <c r="K21">
-        <v>3113.634314273933</v>
+        <v>3141.81758271405</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.56888883979634</v>
+        <v>69.00111397069068</v>
       </c>
       <c r="G22">
-        <v>119.0296259464632</v>
+        <v>115.2147307267786</v>
       </c>
       <c r="H22">
-        <v>1637.829461485718</v>
+        <v>1661.868410700236</v>
       </c>
       <c r="I22">
-        <v>-753.1145904882201</v>
+        <v>-752.6013866005848</v>
       </c>
       <c r="J22">
-        <v>999.7639787175523</v>
+        <v>1038.243932648014</v>
       </c>
       <c r="K22">
-        <v>3241.634777723268</v>
+        <v>3058.038488534025</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.16470713861833</v>
+        <v>63.32266705369371</v>
       </c>
       <c r="G23">
-        <v>137.2308667790404</v>
+        <v>129.7803623487786</v>
       </c>
       <c r="H23">
-        <v>1695.937438058109</v>
+        <v>1578.801898304501</v>
       </c>
       <c r="I23">
-        <v>-723.521236671266</v>
+        <v>-722.5185866884816</v>
       </c>
       <c r="J23">
-        <v>986.3740438809233</v>
+        <v>955.1713087565848</v>
       </c>
       <c r="K23">
-        <v>3289.607124197913</v>
+        <v>3191.164493433258</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.25529985756358</v>
+        <v>65.77138639251065</v>
       </c>
       <c r="G24">
-        <v>152.9952923447359</v>
+        <v>141.0860435830306</v>
       </c>
       <c r="H24">
-        <v>1651.614198821315</v>
+        <v>1632.13734658051</v>
       </c>
       <c r="I24">
-        <v>-621.9359014458779</v>
+        <v>-664.2352731977268</v>
       </c>
       <c r="J24">
-        <v>950.9156789574159</v>
+        <v>964.2206149250635</v>
       </c>
       <c r="K24">
-        <v>3174.249402782881</v>
+        <v>3126.835291087898</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.85407911713608</v>
+        <v>61.26246156567301</v>
       </c>
       <c r="G25">
-        <v>167.0069603568039</v>
+        <v>157.5802519920679</v>
       </c>
       <c r="H25">
-        <v>1686.855779328962</v>
+        <v>1715.720188171612</v>
       </c>
       <c r="I25">
-        <v>-596.592723173154</v>
+        <v>-611.5338041100003</v>
       </c>
       <c r="J25">
-        <v>839.4485405602314</v>
+        <v>898.0588122862605</v>
       </c>
       <c r="K25">
-        <v>3026.646046091971</v>
+        <v>3155.342125556673</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.91039056809267</v>
+        <v>58.90884130184195</v>
       </c>
       <c r="G26">
-        <v>187.2264610538229</v>
+        <v>171.9789118682498</v>
       </c>
       <c r="H26">
-        <v>1737.727994754189</v>
+        <v>1736.044056683401</v>
       </c>
       <c r="I26">
-        <v>-539.1775036510703</v>
+        <v>-534.0933179235744</v>
       </c>
       <c r="J26">
-        <v>825.8848370528342</v>
+        <v>819.1175211165817</v>
       </c>
       <c r="K26">
-        <v>2969.933352123799</v>
+        <v>3032.929629783097</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.99758591415141</v>
+        <v>57.08022951244709</v>
       </c>
       <c r="G27">
-        <v>206.0987627961715</v>
+        <v>201.6443812943444</v>
       </c>
       <c r="H27">
-        <v>1723.391580536724</v>
+        <v>1686.959461997308</v>
       </c>
       <c r="I27">
-        <v>-499.2276160683044</v>
+        <v>-471.0804434151402</v>
       </c>
       <c r="J27">
-        <v>802.8404872490084</v>
+        <v>768.6054994189918</v>
       </c>
       <c r="K27">
-        <v>2898.804986166485</v>
+        <v>3109.531717807421</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.801703868338</v>
+        <v>59.03978327989634</v>
       </c>
       <c r="G28">
-        <v>209.4949452553953</v>
+        <v>211.2772440340828</v>
       </c>
       <c r="H28">
-        <v>1753.534142461491</v>
+        <v>1752.120782317064</v>
       </c>
       <c r="I28">
-        <v>-418.5529501950166</v>
+        <v>-424.5130305753837</v>
       </c>
       <c r="J28">
-        <v>765.2721014653995</v>
+        <v>771.7010042777016</v>
       </c>
       <c r="K28">
-        <v>2902.314535397248</v>
+        <v>3094.389502467511</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.12934589163017</v>
+        <v>52.58220913155313</v>
       </c>
       <c r="G29">
-        <v>219.9551648899225</v>
+        <v>221.0561096428825</v>
       </c>
       <c r="H29">
-        <v>1825.078334019409</v>
+        <v>1824.358732259495</v>
       </c>
       <c r="I29">
-        <v>-386.5962242086857</v>
+        <v>-401.9979403417162</v>
       </c>
       <c r="J29">
-        <v>675.0652520367428</v>
+        <v>654.7231961410588</v>
       </c>
       <c r="K29">
-        <v>3026.579663267345</v>
+        <v>2909.375306344107</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.97827110906515</v>
+        <v>51.69980213419743</v>
       </c>
       <c r="G30">
-        <v>244.6370006284398</v>
+        <v>250.3226262057858</v>
       </c>
       <c r="H30">
-        <v>1669.36440326571</v>
+        <v>1779.924628913995</v>
       </c>
       <c r="I30">
-        <v>-337.6898093163512</v>
+        <v>-316.9259879969283</v>
       </c>
       <c r="J30">
-        <v>619.5326925368547</v>
+        <v>647.98304812812</v>
       </c>
       <c r="K30">
-        <v>2899.502322333205</v>
+        <v>2891.455254842722</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.58912093540943</v>
+        <v>50.16679205288494</v>
       </c>
       <c r="G31">
-        <v>253.1985141119416</v>
+        <v>260.8585465741528</v>
       </c>
       <c r="H31">
-        <v>1739.421239947167</v>
+        <v>1681.175566057305</v>
       </c>
       <c r="I31">
-        <v>-268.5155474849398</v>
+        <v>-262.228528289093</v>
       </c>
       <c r="J31">
-        <v>604.940675427516</v>
+        <v>582.4810244446606</v>
       </c>
       <c r="K31">
-        <v>2790.553782473143</v>
+        <v>2556.047198999205</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.40710047112675</v>
+        <v>52.51143267858362</v>
       </c>
       <c r="G32">
-        <v>279.9202892791499</v>
+        <v>284.2087030793787</v>
       </c>
       <c r="H32">
-        <v>1746.54971030525</v>
+        <v>1818.932819716906</v>
       </c>
       <c r="I32">
-        <v>-213.6165924989479</v>
+        <v>-210.3059823860475</v>
       </c>
       <c r="J32">
-        <v>530.1815737450114</v>
+        <v>528.5574330039639</v>
       </c>
       <c r="K32">
-        <v>2523.988991638021</v>
+        <v>2411.49940512388</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>47.98254657813225</v>
+        <v>48.39018984577224</v>
       </c>
       <c r="G33">
-        <v>310.8822604329419</v>
+        <v>295.8608259592351</v>
       </c>
       <c r="H33">
-        <v>1830.174727672508</v>
+        <v>1743.948297124969</v>
       </c>
       <c r="I33">
-        <v>-150.0953191705092</v>
+        <v>-141.8304372123122</v>
       </c>
       <c r="J33">
-        <v>490.3224600454297</v>
+        <v>489.569953539578</v>
       </c>
       <c r="K33">
-        <v>2418.336620503607</v>
+        <v>2257.863557773098</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.37445038035387</v>
+        <v>51.04106814210414</v>
       </c>
       <c r="G34">
-        <v>323.9568838796666</v>
+        <v>310.094543268952</v>
       </c>
       <c r="H34">
-        <v>1807.03479550614</v>
+        <v>1885.902527933998</v>
       </c>
       <c r="I34">
-        <v>-86.91315853957973</v>
+        <v>-83.18620143455982</v>
       </c>
       <c r="J34">
-        <v>451.3797639748516</v>
+        <v>460.7914239757779</v>
       </c>
       <c r="K34">
-        <v>2291.237121572374</v>
+        <v>2275.941121035376</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.24217180940973</v>
+        <v>48.02327745198507</v>
       </c>
       <c r="G35">
-        <v>326.6946016928691</v>
+        <v>329.6028454217256</v>
       </c>
       <c r="H35">
-        <v>1828.541440274528</v>
+        <v>1782.506018438925</v>
       </c>
       <c r="I35">
-        <v>-19.25902982838229</v>
+        <v>-19.05324589735666</v>
       </c>
       <c r="J35">
-        <v>398.7058968380856</v>
+        <v>389.1463093971645</v>
       </c>
       <c r="K35">
-        <v>2026.101167078233</v>
+        <v>2080.649128986458</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.75958805803118</v>
+        <v>47.45759487081306</v>
       </c>
       <c r="G36">
-        <v>353.4022383355901</v>
+        <v>347.1666329197114</v>
       </c>
       <c r="H36">
-        <v>1845.155638709198</v>
+        <v>1755.749083505698</v>
       </c>
       <c r="I36">
-        <v>49.17159047060237</v>
+        <v>48.73301028696546</v>
       </c>
       <c r="J36">
-        <v>343.0251058544328</v>
+        <v>346.409265667968</v>
       </c>
       <c r="K36">
-        <v>1825.924925461852</v>
+        <v>1878.366612312602</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.01981421597772</v>
+        <v>45.55469352472449</v>
       </c>
       <c r="G37">
-        <v>375.1462411097928</v>
+        <v>361.0009844889204</v>
       </c>
       <c r="H37">
-        <v>1919.657985200845</v>
+        <v>1776.114170990419</v>
       </c>
       <c r="I37">
-        <v>113.0987770982367</v>
+        <v>114.5864092637229</v>
       </c>
       <c r="J37">
-        <v>288.3936887293618</v>
+        <v>301.9820865043114</v>
       </c>
       <c r="K37">
-        <v>1650.091980277548</v>
+        <v>1565.461996822268</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.12440297296807</v>
+        <v>44.59380483093965</v>
       </c>
       <c r="G38">
-        <v>396.7862044704216</v>
+        <v>379.6488358015839</v>
       </c>
       <c r="H38">
-        <v>1797.74807934194</v>
+        <v>1822.048214516274</v>
       </c>
       <c r="I38">
-        <v>179.1060136206352</v>
+        <v>185.5169854774041</v>
       </c>
       <c r="J38">
-        <v>254.6427687392745</v>
+        <v>245.6074948858148</v>
       </c>
       <c r="K38">
-        <v>1344.418774382373</v>
+        <v>1450.640887338378</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.63093057558159</v>
+        <v>45.09166638428438</v>
       </c>
       <c r="G39">
-        <v>398.7508087588598</v>
+        <v>393.7384430962093</v>
       </c>
       <c r="H39">
-        <v>1779.192022882957</v>
+        <v>1860.319528586425</v>
       </c>
       <c r="I39">
-        <v>243.3177103304595</v>
+        <v>256.208594251856</v>
       </c>
       <c r="J39">
-        <v>191.9858210363921</v>
+        <v>204.9311869126882</v>
       </c>
       <c r="K39">
-        <v>1205.561965013985</v>
+        <v>1200.835623558339</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.46713990384678</v>
+        <v>46.34618698940183</v>
       </c>
       <c r="G40">
-        <v>423.5337732767381</v>
+        <v>407.7568538395337</v>
       </c>
       <c r="H40">
-        <v>1943.364159780471</v>
+        <v>1816.426407144725</v>
       </c>
       <c r="I40">
-        <v>330.5043507619515</v>
+        <v>322.9330814026017</v>
       </c>
       <c r="J40">
-        <v>153.287141683773</v>
+        <v>153.6172358520756</v>
       </c>
       <c r="K40">
-        <v>863.9129526793034</v>
+        <v>933.1296534074035</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.23791767608114</v>
+        <v>42.17672976950139</v>
       </c>
       <c r="G41">
-        <v>412.0275130758131</v>
+        <v>436.3701569768028</v>
       </c>
       <c r="H41">
-        <v>1888.718623665099</v>
+        <v>1941.054937801228</v>
       </c>
       <c r="I41">
-        <v>397.2807247446187</v>
+        <v>409.1019067602189</v>
       </c>
       <c r="J41">
-        <v>106.1480018102331</v>
+        <v>103.78439430704</v>
       </c>
       <c r="K41">
-        <v>623.5132380093893</v>
+        <v>641.7668535337073</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.6812354484034</v>
+        <v>43.12876084034664</v>
       </c>
       <c r="G42">
-        <v>423.4317847839096</v>
+        <v>464.1948030897858</v>
       </c>
       <c r="H42">
-        <v>1865.34165595626</v>
+        <v>1882.594361842525</v>
       </c>
       <c r="I42">
-        <v>461.6180969450548</v>
+        <v>468.1711035931162</v>
       </c>
       <c r="J42">
-        <v>53.32197019919752</v>
+        <v>52.05339067560432</v>
       </c>
       <c r="K42">
-        <v>323.3221446426844</v>
+        <v>348.8741168538891</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.78726369482282</v>
+        <v>43.06976590176016</v>
       </c>
       <c r="G43">
-        <v>454.4916950797</v>
+        <v>481.469499298034</v>
       </c>
       <c r="H43">
-        <v>1892.430331243524</v>
+        <v>1912.730934180934</v>
       </c>
       <c r="I43">
-        <v>567.2468504002185</v>
+        <v>548.4124485626392</v>
       </c>
       <c r="J43">
-        <v>5.397187119921641</v>
+        <v>5.21438880328821</v>
       </c>
       <c r="K43">
-        <v>34.36494246202287</v>
+        <v>34.41915495047324</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.80947982000528</v>
+        <v>39.66439343022665</v>
       </c>
       <c r="G44">
-        <v>501.6801281262229</v>
+        <v>454.234533463545</v>
       </c>
       <c r="H44">
-        <v>1845.860411067644</v>
+        <v>1903.947652310097</v>
       </c>
       <c r="I44">
-        <v>619.559765497617</v>
+        <v>615.6006511843134</v>
       </c>
       <c r="J44">
-        <v>-42.01740471528613</v>
+        <v>-43.11936854211441</v>
       </c>
       <c r="K44">
-        <v>-273.308762686778</v>
+        <v>-297.2319031258237</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.66226653738525</v>
+        <v>42.87984769856707</v>
       </c>
       <c r="G45">
-        <v>493.3488667452241</v>
+        <v>493.2431384939833</v>
       </c>
       <c r="H45">
-        <v>1931.264872319499</v>
+        <v>1898.010632062488</v>
       </c>
       <c r="I45">
-        <v>719.720030458232</v>
+        <v>699.8347777582451</v>
       </c>
       <c r="J45">
-        <v>-90.60467552868565</v>
+        <v>-93.35955770590408</v>
       </c>
       <c r="K45">
-        <v>-609.5104815652312</v>
+        <v>-641.6573606742344</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.17493681763509</v>
+        <v>41.48140597908131</v>
       </c>
       <c r="G46">
-        <v>518.6263027417424</v>
+        <v>528.8297881296156</v>
       </c>
       <c r="H46">
-        <v>1896.279480100303</v>
+        <v>1847.737251067093</v>
       </c>
       <c r="I46">
-        <v>818.0036748782966</v>
+        <v>832.7355618987723</v>
       </c>
       <c r="J46">
-        <v>-145.8237650812073</v>
+        <v>-143.1164440657544</v>
       </c>
       <c r="K46">
-        <v>-968.5646494466315</v>
+        <v>-941.0963724666958</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.47199374965396</v>
+        <v>38.30697008709308</v>
       </c>
       <c r="G47">
-        <v>523.0997745002858</v>
+        <v>522.1244578777184</v>
       </c>
       <c r="H47">
-        <v>1938.182980154718</v>
+        <v>1859.151640515012</v>
       </c>
       <c r="I47">
-        <v>897.6949261181072</v>
+        <v>895.9058953149055</v>
       </c>
       <c r="J47">
-        <v>-180.2987209502852</v>
+        <v>-181.7815123933899</v>
       </c>
       <c r="K47">
-        <v>-1269.800535296263</v>
+        <v>-1341.603882740623</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.74763000026633</v>
+        <v>40.83831768536487</v>
       </c>
       <c r="G48">
-        <v>529.6654969401201</v>
+        <v>536.8221110804457</v>
       </c>
       <c r="H48">
-        <v>1946.589147006994</v>
+        <v>1895.096549257847</v>
       </c>
       <c r="I48">
-        <v>1024.67382758404</v>
+        <v>965.4509762787162</v>
       </c>
       <c r="J48">
-        <v>-236.2197462083716</v>
+        <v>-241.7895229242837</v>
       </c>
       <c r="K48">
-        <v>-1687.324572291106</v>
+        <v>-1728.024555917486</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.76991299844319</v>
+        <v>38.16148388553734</v>
       </c>
       <c r="G49">
-        <v>535.3891343120055</v>
+        <v>553.2694143892261</v>
       </c>
       <c r="H49">
-        <v>1949.515293214521</v>
+        <v>1900.860228057071</v>
       </c>
       <c r="I49">
-        <v>1057.670451811824</v>
+        <v>1062.555455090695</v>
       </c>
       <c r="J49">
-        <v>-277.1491367984543</v>
+        <v>-276.0956874000376</v>
       </c>
       <c r="K49">
-        <v>-2104.82633526468</v>
+        <v>-1999.626210014455</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.47615207125438</v>
+        <v>37.81814198009022</v>
       </c>
       <c r="G50">
-        <v>561.9110809147603</v>
+        <v>548.2921339722782</v>
       </c>
       <c r="H50">
-        <v>1966.500401563163</v>
+        <v>2046.164633615746</v>
       </c>
       <c r="I50">
-        <v>1155.361897066035</v>
+        <v>1204.498910662592</v>
       </c>
       <c r="J50">
-        <v>-321.8229509897232</v>
+        <v>-338.0851392505863</v>
       </c>
       <c r="K50">
-        <v>-2450.922823449472</v>
+        <v>-2568.400272610852</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.95613134332764</v>
+        <v>37.65472335395799</v>
       </c>
       <c r="G51">
-        <v>594.2989083700321</v>
+        <v>584.7808419622285</v>
       </c>
       <c r="H51">
-        <v>2013.119367037127</v>
+        <v>1917.528129493713</v>
       </c>
       <c r="I51">
-        <v>1210.215141863844</v>
+        <v>1314.615180826379</v>
       </c>
       <c r="J51">
-        <v>-384.6019344271605</v>
+        <v>-379.0319087644701</v>
       </c>
       <c r="K51">
-        <v>-2879.734125932899</v>
+        <v>-2875.852553635665</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.50376262279762</v>
+        <v>36.81171236913067</v>
       </c>
       <c r="G52">
-        <v>587.2295332241446</v>
+        <v>630.6585891976086</v>
       </c>
       <c r="H52">
-        <v>1997.504889383272</v>
+        <v>1886.769394103337</v>
       </c>
       <c r="I52">
-        <v>1372.063991375428</v>
+        <v>1377.229162265202</v>
       </c>
       <c r="J52">
-        <v>-432.177918629704</v>
+        <v>-439.1298568646032</v>
       </c>
       <c r="K52">
-        <v>-3255.984062732187</v>
+        <v>-3354.410103563066</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.9632730781593</v>
+        <v>36.58961209936415</v>
       </c>
       <c r="G53">
-        <v>622.9699811727745</v>
+        <v>624.0140215534966</v>
       </c>
       <c r="H53">
-        <v>1963.820129541812</v>
+        <v>1901.771518900609</v>
       </c>
       <c r="I53">
-        <v>1492.892323072019</v>
+        <v>1425.222824790848</v>
       </c>
       <c r="J53">
-        <v>-492.8879081340506</v>
+        <v>-489.5110190628799</v>
       </c>
       <c r="K53">
-        <v>-3962.676341546166</v>
+        <v>-3897.382872647003</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.19941017874007</v>
+        <v>38.06656419994058</v>
       </c>
       <c r="G54">
-        <v>638.5420957143389</v>
+        <v>627.5167075563088</v>
       </c>
       <c r="H54">
-        <v>1996.483852624239</v>
+        <v>1975.351636192492</v>
       </c>
       <c r="I54">
-        <v>1569.776284781739</v>
+        <v>1542.50183219953</v>
       </c>
       <c r="J54">
-        <v>-513.9889123691015</v>
+        <v>-505.5013587549059</v>
       </c>
       <c r="K54">
-        <v>-4498.129794863528</v>
+        <v>-4179.813566465308</v>
       </c>
     </row>
   </sheetData>
